--- a/biology/Botanique/Engyodontium/Engyodontium.xlsx
+++ b/biology/Botanique/Engyodontium/Engyodontium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Engyodontium est un genre de champignons parasites de la famille des Cordycipitaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces champignons forment des colonies blanches en forme de toile d'araignée. Les conidiophores sont hyalins, à parois minces, rampants à sub-dressés ; les ramifications sont subverticales à verticales. Les cellules conidiogènes sont subulées à cylindriques, polyblastiques, formant des conidies holoblastiques sur des denticules en forme de crosse ou de cheveu sur des rhéochides allongés. Les conidies sont hyalines, petites, unicellulaires[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces champignons forment des colonies blanches en forme de toile d'araignée. Les conidiophores sont hyalins, à parois minces, rampants à sub-dressés ; les ramifications sont subverticales à verticales. Les cellules conidiogènes sont subulées à cylindriques, polyblastiques, formant des conidies holoblastiques sur des denticules en forme de crosse ou de cheveu sur des rhéochides allongés. Les conidies sont hyalines, petites, unicellulaires.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Engyodontium de Hoog[2], publié en 1978 par le mycologue néerlandais Gerrit Sybren de Hoog (d). Engyodontium parvisporum (Petch) de Hoog est l'espèce type, initialement classée dans le genre Rhinotrichum[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Engyodontium de Hoog, publié en 1978 par le mycologue néerlandais Gerrit Sybren de Hoog (d). Engyodontium parvisporum (Petch) de Hoog est l'espèce type, initialement classée dans le genre Rhinotrichum.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (9 février 2024)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (9 février 2024) :
 Engyodontium album (Limber) de Hoog, 1978
 Engyodontium arachnophilum H.C. Evans &amp; Samson, 1984
 Engyodontium aranearum (Cavara) W. Gams, de Hoog, Samson &amp; H.C. Evans, 1984
@@ -610,6 +628,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
